--- a/Vaud_2022/LENA_Wahlen_Vaud_Texte.xlsx
+++ b/Vaud_2022/LENA_Wahlen_Vaud_Texte.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_BDA0D575C3574AFC124848295207BA9008ED6F52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141C21A5-7A5C-4F4A-BFD9-64939DD0A2A8}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -185,11 +193,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,7 +208,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -216,217 +223,534 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="56.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="56.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vaud_2022/LENA_Wahlen_Vaud_Texte.xlsx
+++ b/Vaud_2022/LENA_Wahlen_Vaud_Texte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_BDA0D575C3574AFC124848295207BA9008ED6F52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141C21A5-7A5C-4F4A-BFD9-64939DD0A2A8}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_BDA0D575C3574AFC124848DF1A41B26009ED6F52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE99C4-EC82-480C-A2C5-87C783D36D04}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Wahlkreis</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Storyboard</t>
   </si>
   <si>
-    <t>Text_de</t>
-  </si>
-  <si>
     <t>Text_fr</t>
   </si>
   <si>
@@ -110,45 +107,6 @@
   </si>
   <si>
     <t>G_mehrereParteien;Sitzverteilung;Neu_gewaehlt_keine;</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;Ensemble à gauche et POP&lt;/b&gt; ist im Wahlkreis Aigle die Gewinnerin. Sie holt zwei zusätzliche Sitze.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; ist die grosse Verliererin. Sie büsst drei Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die Ensemble à gauche et POP zwei Sitze und die SVP einen Sitz.&lt;br&gt;&lt;br&gt;Die Grüne, die SP und die FDP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Für eine Überraschung sorgt die Liste Alliance centriste du Chablais - AC/DC, die einen Sitz erobern kann.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;GLP&lt;/b&gt; und die &lt;b&gt;Mitte&lt;/b&gt; sind im Wahlkreis Broye-Vully die Gewinner. Sie holen je zwei zusätzliche Sitze.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; ist die grosse Verliererin. Sie büsst drei Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die GLP zwei Sitze, die Mitte zwei Sitze, die SP zwei Sitze, die SVP zwei Sitze und die Grünen einen Sitz.&lt;br&gt;&lt;br&gt;Die FDP hält keine Sitze mehr.&lt;br&gt;&lt;br&gt;Gleich mehrere weitere Listen erobern sich Sitze: die Liste 'Parti Evangélique Vaudois' holt einen Sitz und die Liste 'Alliance des Libertés' holt zwei Sitze.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;Mitte&lt;/b&gt; und die &lt;b&gt;GLP&lt;/b&gt; sind im Wahlkreis Gros-de-Vaud die Gewinner. Sie holen zwei und einen zusätzlichen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;SVP&lt;/b&gt; und die &lt;b&gt;SP&lt;/b&gt; sind die Verlierer. Sie büssen zwei und einen Sitz ein.&lt;br&gt;&lt;br&gt;Neu hält die Mitte zwei Sitze, die GLP zwei Sitze, die FDP zwei Sitze, die Grünen einen Sitz und die SP einen Sitz.&lt;br&gt;&lt;br&gt;Die SVP hält keine Sitze mehr.&lt;br&gt;&lt;br&gt;Für eine Überraschung sorgt die Liste Alliance des Libertés, die  zwei Sitze erobern kann.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;Grünen&lt;/b&gt; sind im Wahlkreis La Vallée die Gewinnerin. Sie holt einen zusätzlichen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;SP&lt;/b&gt; und die &lt;b&gt;FDP&lt;/b&gt; sind die Verlierer. Sie büssen je einen Sitz ein.&lt;br&gt;&lt;br&gt;Neu halten die Grünen einen Sitz.&lt;br&gt;&lt;br&gt;Die FDP und die SP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Für eine Überraschung sorgt die Liste PARTI EVANGELIQUE VAUD, die  zwei Sitze erobern kann.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Im Wahlkreis Yverdon gibt es mehrere Gewinner: die &lt;b&gt;Ensemble à gauche et POP&lt;/b&gt; holt zwei Sitze, die &lt;b&gt;GLP&lt;/b&gt; holt zwei Sitze und die &lt;b&gt;Mitte&lt;/b&gt; holt einen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; ist die grosse Verliererin. Sie büsst sechs Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die Ensemble à gauche et POP zwei Sitze, die GLP zwei Sitze, die Grünen zwei Sitze, die SP zwei Sitze, die SVP zwei Sitze und die Mitte einen Sitz.&lt;br&gt;&lt;br&gt;Die FDP hält keine Sitze mehr.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Es gibt mehrere grosse Verlierer: die &lt;b&gt;SP&lt;/b&gt; verliert acht Sitze, die &lt;b&gt;FDP&lt;/b&gt; verliert sechs Sitze, die &lt;b&gt;Grünen&lt;/b&gt; verlieren fünf Sitze, die &lt;b&gt;SVP&lt;/b&gt; verliert zwei Sitze und die &lt;b&gt;Ensemble à gauche et POP&lt;/b&gt; verliert einen Sitz.&lt;br&gt;&lt;br&gt;Neu hält die Mitte zwei Sitze und die Ensemble à gauche et POP zwei Sitze.&lt;br&gt;&lt;br&gt;Die SVP, die Grüne, die FDP und die SP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Gleich mehrere weitere Listen erobern sich Sitze: die Liste 'Alliance des Libertés' holt zwei Sitze, die Liste 'L'Aurore' holt zwei Sitze und die Liste 'Parti Pirate Vaudois' holt zwei Sitze.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Im Wahlkreis Romanel gibt es mehrere Gewinner: die &lt;b&gt;GLP&lt;/b&gt; holt zwei Sitze, die &lt;b&gt;Mitte&lt;/b&gt; holt zwei Sitze, die &lt;b&gt;Grüne&lt;/b&gt; holt einen Sitz und die &lt;b&gt;SP&lt;/b&gt; holt einen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; und die &lt;b&gt;SVP&lt;/b&gt; sind die Verlierer. Sie büssen zwei und einen Sitz ein.&lt;br&gt;&lt;br&gt;Neu hält die GLP zwei Sitze, die Mitte zwei Sitze, die Grünen zwei Sitze und die SP zwei Sitze.&lt;br&gt;&lt;br&gt;Die SVP und die FDP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Für eine Überraschung sorgt die Liste Alliance Des Libertés, die einen Sitz erobern kann.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;Mitte&lt;/b&gt; und die &lt;b&gt;GLP&lt;/b&gt; sind im Wahlkreis Lavaux-Oron die Gewinner. Sie holen zwei und einen zusätzlichen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; ist die grosse Verliererin. Sie büsst fünf Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die Mitte zwei Sitze, die GLP zwei Sitze, die Grünen zwei Sitze, die SP zwei Sitze und die SVP einen Sitz.&lt;br&gt;&lt;br&gt;Die FDP hält keine Sitze mehr.&lt;br&gt;&lt;br&gt;Für eine Überraschung sorgt die Liste Consciences citoyennes, die einen Sitz erobern kann.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;SP&lt;/b&gt; und die &lt;b&gt;FDP&lt;/b&gt; sind die grossen Verlierer. Sie büssen je vier Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die SVP zwei Sitze, die Grünen einen Sitz und die FDP einen Sitz.&lt;br&gt;&lt;br&gt;Die GLP und die SP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Gleich mehrere weitere Listen erobern sich Sitze: die Liste 'Indépendants vaudois' holt zwei Sitze und die Liste 'Alliance des Libertés' holt einen Sitz.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;Libres&lt;/b&gt; und die &lt;b&gt;Mitte&lt;/b&gt; sind im Wahlkreis Nyon die Gewinner. Sie holen je einen zusätzlichen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; und die &lt;b&gt;SVP&lt;/b&gt; sind die grossen Verlierer. Sie büssen fünf und vier Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die SP zwei Sitze, die Libres einen Sitz, die Mitte einen Sitz, die Grünen einen Sitz und die FDP einen Sitz.&lt;br&gt;&lt;br&gt;Die GLP und die SVP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Für eine Überraschung sorgt die Liste Alliance des Libertés, die  zwei Sitze erobern kann.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Die &lt;b&gt;SP&lt;/b&gt; ist die grosse Verliererin. Sie büsst vier Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die FDP zwei Sitze, die Ensemble à gauche et POP einen Sitz, die Mitte einen Sitz und die SVP einen Sitz.&lt;br&gt;&lt;br&gt;Die Grünen und die SP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Gleich mehrere weitere Listen erobern sich Sitze: die Liste 'Alliance des Libertés' holt einen Sitz und die Liste 'Parti Evangélique Vaud (PEV)' holt zwei Sitze.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Im Wahlkreis Vevey gibt es mehrere Gewinner: die &lt;b&gt;Ensemble à gauche et POP&lt;/b&gt; holt zwei Sitze, die &lt;b&gt;Libres&lt;/b&gt; holt zwei Sitze und die &lt;b&gt;SVP&lt;/b&gt; holt einen Sitz.&lt;br&gt;&lt;br&gt;Die &lt;b&gt;FDP&lt;/b&gt; ist die grosse Verliererin. Sie büsst fünf Sitze ein.&lt;br&gt;&lt;br&gt;Neu hält die Ensemble à gauche et POP drei Sitze, die Libres zwei Sitze, die SVP zwei Sitze und die SP zwei Sitze.&lt;br&gt;&lt;br&gt;Die GLP, die Grünen und die FDP halten keine Sitze mehr.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
-  </si>
-  <si>
-    <t>Im Wahlkreis Pays-d'Enhaut gibt es mehrere Gewinner: die &lt;b&gt;SP&lt;/b&gt; holt zwei Sitze, die &lt;b&gt;FDP&lt;/b&gt; holt einen Sitz und die &lt;b&gt;Grüne&lt;/b&gt; holt einen Sitz.&lt;br&gt;&lt;br&gt;Neu hält die SP zwei Sitze, die FDP zwei Sitze, die Grünen einen Sitz und die SVP einen Sitz.&lt;br&gt;&lt;br&gt;Alle Bisherigen wurden in diesem Wahlkreis wiedergewählt.</t>
   </si>
   <si>
     <t>&lt;b&gt;Ensemble à gauche et POP&lt;/b&gt; termine premier dans l'arrondissement Aigle. Il gagne deux sièges supplémentaires.&lt;br&gt;&lt;br&gt;Le &lt;b&gt;PLR&lt;/b&gt; est le grand battu. Il perd trois sièges.&lt;br&gt;&lt;br&gt;Ensemble à gauche et POP détient désormais deux sièges et l'UDC un siège.&lt;br&gt;&lt;br&gt;Le Verts, le PS et le PLR ont perdu tous les leurs sièges.&lt;br&gt;&lt;br&gt;Un tout petit parti issu des Alliance centriste du Chablais - AC/DC parvient à faire élire un candidat.&lt;br&gt;&lt;br&gt;Tous les sortants sont réélus.</t>
@@ -194,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -202,13 +160,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,9 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,215 +518,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="56.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="56.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="102.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vaud_2022/LENA_Wahlen_Vaud_Texte.xlsx
+++ b/Vaud_2022/LENA_Wahlen_Vaud_Texte.xlsx
@@ -152,7 +152,7 @@
     <t>Le &lt;b&gt;Centre&lt;/b&gt; et les &lt;b&gt;Vert'libéraux&lt;/b&gt; ont eu le plus de succès dans l'arrondissement Gros-de-Vaud. Ils gagnent respectivement deux et un siège supplémentaires.&lt;br&gt;&lt;br&gt;&lt;b&gt;L'UDC&lt;/b&gt; et le &lt;b&gt;PS&lt;/b&gt; ont connu un dimanche difficile: ils perdent respectivement deux et un siège.&lt;br&gt;&lt;br&gt;Le Centre détient désormais deux sièges, les Vert'libéraux deux sièges, le PLR deux sièges, les Verts un siège et le PS un siège.&lt;br&gt;&lt;br&gt;L'UDC a perdu tous ses sièges.&lt;br&gt;&lt;br&gt;Un tout petit parti issu des Alliance des Libertés parvient à faire élire plusieurs candidats.&lt;br&gt;&lt;br&gt;Tous les sortants sont réélus.</t>
   </si>
   <si>
-    <t>Les &lt;b&gt;Verts&lt;/b&gt; termine premier dans l'arrondissement La Vallée. Il gagne un siège supplémentaire.&lt;br&gt;&lt;br&gt;Le &lt;b&gt;PS&lt;/b&gt; et le &lt;b&gt;PLR&lt;/b&gt; ont connu un dimanche difficile: ils perdent chacun un siège.&lt;br&gt;&lt;br&gt;Les Verts détient désormais un siège.&lt;br&gt;&lt;br&gt;Le PLR et le PS ont perdu tous les leurs sièges.&lt;br&gt;&lt;br&gt;Un tout petit parti issu des PARTI EVANGELIQUE VAUD parvient à faire élire plusieurs candidats.&lt;br&gt;&lt;br&gt;Tous les sortants sont réélus.</t>
+    <t>Les &lt;b&gt;Verts&lt;/b&gt; termine premier dans l'arrondissement La Vallée. Ils gagnent un siège supplémentaire.&lt;br&gt;&lt;br&gt;Le &lt;b&gt;PS&lt;/b&gt; et le &lt;b&gt;PLR&lt;/b&gt; ont connu un dimanche difficile: ils perdent chacun un siège.&lt;br&gt;&lt;br&gt;Les Verts détient désormais un siège.&lt;br&gt;&lt;br&gt;Le PLR et le PS ont perdu tous les leurs sièges.&lt;br&gt;&lt;br&gt;Un tout petit parti issu des PARTI EVANGELIQUE VAUD parvient à faire élire plusieurs candidats.&lt;br&gt;&lt;br&gt;Tous les sortants sont réélus.</t>
   </si>
   <si>
     <t>Plusieurs partis sont vainqueurs dans l'arrondissement d'Yverdon: &lt;b&gt;Ensemble à gauche et POP&lt;/b&gt; obtient deux sièges, les &lt;b&gt;Vert'libéraux&lt;/b&gt; obtient deux sièges et le &lt;b&gt;Centre&lt;/b&gt; obtient un siège&lt;br&gt;&lt;br&gt;Le &lt;b&gt;PLR&lt;/b&gt; est le grand battu. Il perd six sièges.&lt;br&gt;&lt;br&gt;Ensemble à gauche et POP détient désormais deux sièges, les Vert'libéraux deux sièges, les Verts deux sièges, le PS deux sièges, l'UDC deux sièges et le Centre un siège.&lt;br&gt;&lt;br&gt;Le PLR a perdu tous ses sièges.&lt;br&gt;&lt;br&gt;Tous les sortants sont réélus.</t>
